--- a/manual/output_1156_chunk_3.xlsx
+++ b/manual/output_1156_chunk_3.xlsx
@@ -8361,7 +8361,7 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <v>372.1243401402405</v>
+        <v>372.5566674604466</v>
       </c>
       <c r="E101" t="s">
         <v>2088</v>
@@ -8378,7 +8378,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>2232.746040841443</v>
+        <v>2235.34000476268</v>
       </c>
       <c r="E102" t="s">
         <v>2087</v>
@@ -8463,7 +8463,7 @@
         <v>2</v>
       </c>
       <c r="D107">
-        <v>371.4333685050999</v>
+        <v>371.8640908700558</v>
       </c>
       <c r="E107" t="s">
         <v>2088</v>
@@ -8480,7 +8480,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>2228.600211030599</v>
+        <v>2231.184545220335</v>
       </c>
       <c r="E108" t="s">
         <v>2087</v>
@@ -13257,7 +13257,7 @@
         <v>332</v>
       </c>
       <c r="D389">
-        <v>47.66266583376256</v>
+        <v>47.49338587561842</v>
       </c>
       <c r="E389" t="s">
         <v>2088</v>
@@ -13274,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="D390">
-        <v>1429.879975012877</v>
+        <v>1424.801576268552</v>
       </c>
       <c r="E390" t="s">
         <v>2087</v>
@@ -13359,7 +13359,7 @@
         <v>332</v>
       </c>
       <c r="D395">
-        <v>47.59177024127386</v>
+        <v>47.48245285642258</v>
       </c>
       <c r="E395" t="s">
         <v>2088</v>
@@ -13376,7 +13376,7 @@
         <v>1</v>
       </c>
       <c r="D396">
-        <v>1427.753107238216</v>
+        <v>1424.473585692677</v>
       </c>
       <c r="E396" t="s">
         <v>2087</v>
@@ -13461,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="D401">
-        <v>657.5</v>
+        <v>657</v>
       </c>
       <c r="E401" t="s">
         <v>2087</v>
@@ -13886,7 +13886,7 @@
         <v>5</v>
       </c>
       <c r="D426">
-        <v>322.25</v>
+        <v>322</v>
       </c>
       <c r="E426" t="s">
         <v>2087</v>
@@ -14753,7 +14753,7 @@
         <v>1</v>
       </c>
       <c r="D477">
-        <v>266.6477635496927</v>
+        <v>266.9269738973614</v>
       </c>
       <c r="E477" t="s">
         <v>2087</v>
@@ -14787,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="D479">
-        <v>266.7014997675471</v>
+        <v>266.9808227212857</v>
       </c>
       <c r="E479" t="s">
         <v>2087</v>
@@ -14804,7 +14804,7 @@
         <v>1</v>
       </c>
       <c r="D480">
-        <v>266.7154308599908</v>
+        <v>266.9947830105164</v>
       </c>
       <c r="E480" t="s">
         <v>2087</v>
@@ -14821,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="D481">
-        <v>266.6329440691761</v>
+        <v>266.912123366118</v>
       </c>
       <c r="E481" t="s">
         <v>2087</v>
@@ -14838,7 +14838,7 @@
         <v>1</v>
       </c>
       <c r="D482">
-        <v>266.6841236811461</v>
+        <v>266.9634102202192</v>
       </c>
       <c r="E482" t="s">
         <v>2087</v>
@@ -14940,7 +14940,7 @@
         <v>2</v>
       </c>
       <c r="D488">
-        <v>976.4029019535758</v>
+        <v>979.5340051985573</v>
       </c>
       <c r="E488" t="s">
         <v>2087</v>
@@ -14991,7 +14991,7 @@
         <v>80</v>
       </c>
       <c r="D491">
-        <v>140.25</v>
+        <v>140</v>
       </c>
       <c r="E491" t="s">
         <v>2088</v>
@@ -15008,7 +15008,7 @@
         <v>29</v>
       </c>
       <c r="D492">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E492" t="s">
         <v>2087</v>
@@ -15858,7 +15858,7 @@
         <v>2</v>
       </c>
       <c r="D542">
-        <v>148.25</v>
+        <v>148.75</v>
       </c>
       <c r="E542" t="s">
         <v>2087</v>
@@ -16708,7 +16708,7 @@
         <v>2</v>
       </c>
       <c r="D592">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="E592" t="s">
         <v>2088</v>
@@ -16725,7 +16725,7 @@
         <v>1</v>
       </c>
       <c r="D593">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E593" t="s">
         <v>2087</v>
@@ -17813,7 +17813,7 @@
         <v>1</v>
       </c>
       <c r="D657">
-        <v>178.25</v>
+        <v>177.75</v>
       </c>
       <c r="E657" t="s">
         <v>2087</v>
@@ -17830,7 +17830,7 @@
         <v>1</v>
       </c>
       <c r="D658">
-        <v>178.25</v>
+        <v>177.75</v>
       </c>
       <c r="E658" t="s">
         <v>2087</v>
@@ -19768,7 +19768,7 @@
         <v>2</v>
       </c>
       <c r="D772">
-        <v>237</v>
+        <v>236.75</v>
       </c>
       <c r="E772" t="s">
         <v>2087</v>
@@ -20278,7 +20278,7 @@
         <v>1</v>
       </c>
       <c r="D802">
-        <v>170.25</v>
+        <v>173.5</v>
       </c>
       <c r="E802" t="s">
         <v>2087</v>
@@ -23219,7 +23219,7 @@
         <v>2</v>
       </c>
       <c r="D975">
-        <v>271.5</v>
+        <v>270.25</v>
       </c>
       <c r="E975" t="s">
         <v>2088</v>
@@ -23236,7 +23236,7 @@
         <v>1</v>
       </c>
       <c r="D976">
-        <v>1629</v>
+        <v>1621.5</v>
       </c>
       <c r="E976" t="s">
         <v>2087</v>
@@ -27673,7 +27673,7 @@
         <v>2</v>
       </c>
       <c r="D1237">
-        <v>879</v>
+        <v>881.75</v>
       </c>
       <c r="E1237" t="s">
         <v>2087</v>
@@ -30104,7 +30104,7 @@
         <v>1</v>
       </c>
       <c r="D1380">
-        <v>122.5</v>
+        <v>122.25</v>
       </c>
       <c r="E1380" t="s">
         <v>2087</v>
@@ -36190,7 +36190,7 @@
         <v>1</v>
       </c>
       <c r="D1738">
-        <v>771.2336320231555</v>
+        <v>771.5835074231222</v>
       </c>
       <c r="E1738" t="s">
         <v>2087</v>
@@ -36207,7 +36207,7 @@
         <v>1</v>
       </c>
       <c r="D1739">
-        <v>771.042657425742</v>
+        <v>771.3923595340194</v>
       </c>
       <c r="E1739" t="s">
         <v>2087</v>
@@ -36224,7 +36224,7 @@
         <v>1</v>
       </c>
       <c r="D1740">
-        <v>767.858766449014</v>
+        <v>768.2787687771263</v>
       </c>
       <c r="E1740" t="s">
         <v>2087</v>
@@ -40542,7 +40542,7 @@
         <v>2</v>
       </c>
       <c r="D1994">
-        <v>1251.25</v>
+        <v>1252.25</v>
       </c>
       <c r="E1994" t="s">
         <v>2088</v>
@@ -40559,7 +40559,7 @@
         <v>1</v>
       </c>
       <c r="D1995">
-        <v>7507.5</v>
+        <v>7513.5</v>
       </c>
       <c r="E1995" t="s">
         <v>2087</v>
@@ -40984,7 +40984,7 @@
         <v>1</v>
       </c>
       <c r="D2020">
-        <v>272.25</v>
+        <v>272.5</v>
       </c>
       <c r="E2020" t="s">
         <v>2087</v>
@@ -42463,7 +42463,7 @@
         <v>1</v>
       </c>
       <c r="D2107">
-        <v>363.5</v>
+        <v>364.75</v>
       </c>
       <c r="E2107" t="s">
         <v>2087</v>
@@ -44231,7 +44231,7 @@
         <v>2</v>
       </c>
       <c r="D2211">
-        <v>245.25</v>
+        <v>245.5</v>
       </c>
       <c r="E2211" t="s">
         <v>2088</v>
@@ -44248,7 +44248,7 @@
         <v>1</v>
       </c>
       <c r="D2212">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="E2212" t="s">
         <v>2087</v>
@@ -45115,7 +45115,7 @@
         <v>2</v>
       </c>
       <c r="D2263">
-        <v>189</v>
+        <v>189.25</v>
       </c>
       <c r="E2263" t="s">
         <v>2088</v>
@@ -45132,7 +45132,7 @@
         <v>1</v>
       </c>
       <c r="D2264">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="E2264" t="s">
         <v>2087</v>
@@ -45523,7 +45523,7 @@
         <v>1</v>
       </c>
       <c r="D2287">
-        <v>810.75</v>
+        <v>809</v>
       </c>
       <c r="E2287" t="s">
         <v>2087</v>
@@ -45982,7 +45982,7 @@
         <v>2</v>
       </c>
       <c r="D2314">
-        <v>254.75</v>
+        <v>254.25</v>
       </c>
       <c r="E2314" t="s">
         <v>2087</v>
@@ -46288,7 +46288,7 @@
         <v>2</v>
       </c>
       <c r="D2332">
-        <v>976.402901953576</v>
+        <v>979.5340051985576</v>
       </c>
       <c r="E2332" t="s">
         <v>2087</v>
@@ -46458,7 +46458,7 @@
         <v>2</v>
       </c>
       <c r="D2342">
-        <v>463.75</v>
+        <v>463.5</v>
       </c>
       <c r="E2342" t="s">
         <v>2087</v>
@@ -46679,7 +46679,7 @@
         <v>2</v>
       </c>
       <c r="D2355">
-        <v>161.2003783627183</v>
+        <v>161.0604444732898</v>
       </c>
       <c r="E2355" t="s">
         <v>2087</v>
@@ -46696,7 +46696,7 @@
         <v>2</v>
       </c>
       <c r="D2356">
-        <v>161.1938491589719</v>
+        <v>161.0539266000607</v>
       </c>
       <c r="E2356" t="s">
         <v>2087</v>
@@ -47478,7 +47478,7 @@
         <v>2</v>
       </c>
       <c r="D2402">
-        <v>307</v>
+        <v>306.75</v>
       </c>
       <c r="E2402" t="s">
         <v>2087</v>
@@ -47495,7 +47495,7 @@
         <v>1</v>
       </c>
       <c r="D2403">
-        <v>484.25</v>
+        <v>480</v>
       </c>
       <c r="E2403" t="s">
         <v>2087</v>
@@ -49331,7 +49331,7 @@
         <v>1</v>
       </c>
       <c r="D2511">
-        <v>438.985391237793</v>
+        <v>439.6147723728134</v>
       </c>
       <c r="E2511" t="s">
         <v>2087</v>
@@ -50402,7 +50402,7 @@
         <v>1</v>
       </c>
       <c r="D2574">
-        <v>444.2912389505057</v>
+        <v>444.112557388983</v>
       </c>
       <c r="E2574" t="s">
         <v>2087</v>
@@ -50419,7 +50419,7 @@
         <v>1</v>
       </c>
       <c r="D2575">
-        <v>444.202535375438</v>
+        <v>444.0986295477803</v>
       </c>
       <c r="E2575" t="s">
         <v>2087</v>
@@ -51371,7 +51371,7 @@
         <v>3</v>
       </c>
       <c r="D2631">
-        <v>47.75</v>
+        <v>47.5</v>
       </c>
       <c r="E2631" t="s">
         <v>2088</v>
@@ -51388,7 +51388,7 @@
         <v>1</v>
       </c>
       <c r="D2632">
-        <v>1432.5</v>
+        <v>1425</v>
       </c>
       <c r="E2632" t="s">
         <v>2087</v>
@@ -51470,7 +51470,7 @@
         <v>1748</v>
       </c>
       <c r="C2637">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2637">
         <v>1228.5</v>
@@ -51487,7 +51487,7 @@
         <v>1748</v>
       </c>
       <c r="C2638">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2638">
         <v>1228.5</v>
@@ -52272,7 +52272,7 @@
         <v>10</v>
       </c>
       <c r="D2684">
-        <v>141.75</v>
+        <v>142.25</v>
       </c>
       <c r="E2684" t="s">
         <v>2088</v>
@@ -52289,7 +52289,7 @@
         <v>1</v>
       </c>
       <c r="D2685">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="E2685" t="s">
         <v>2087</v>
@@ -52476,7 +52476,7 @@
         <v>10</v>
       </c>
       <c r="D2696">
-        <v>138.5</v>
+        <v>138.25</v>
       </c>
       <c r="E2696" t="s">
         <v>2088</v>
@@ -52493,7 +52493,7 @@
         <v>1</v>
       </c>
       <c r="D2697">
-        <v>3324</v>
+        <v>3318</v>
       </c>
       <c r="E2697" t="s">
         <v>2087</v>
@@ -53309,7 +53309,7 @@
         <v>1</v>
       </c>
       <c r="D2745">
-        <v>314.75</v>
+        <v>313.5</v>
       </c>
       <c r="E2745" t="s">
         <v>2087</v>
@@ -53547,7 +53547,7 @@
         <v>2</v>
       </c>
       <c r="D2759">
-        <v>1050.25</v>
+        <v>1057.5</v>
       </c>
       <c r="E2759" t="s">
         <v>2088</v>
@@ -53564,7 +53564,7 @@
         <v>1</v>
       </c>
       <c r="D2760">
-        <v>3150.75</v>
+        <v>3172.5</v>
       </c>
       <c r="E2760" t="s">
         <v>2087</v>
@@ -55451,7 +55451,7 @@
         <v>1</v>
       </c>
       <c r="D2871">
-        <v>890.537956619067</v>
+        <v>889.9096553812274</v>
       </c>
       <c r="E2871" t="s">
         <v>2087</v>
@@ -55468,7 +55468,7 @@
         <v>1</v>
       </c>
       <c r="D2872">
-        <v>891.4403413728032</v>
+        <v>890.3214415833608</v>
       </c>
       <c r="E2872" t="s">
         <v>2087</v>
@@ -55485,7 +55485,7 @@
         <v>1</v>
       </c>
       <c r="D2873">
-        <v>887.25</v>
+        <v>885</v>
       </c>
       <c r="E2873" t="s">
         <v>2087</v>
@@ -55519,7 +55519,7 @@
         <v>1</v>
       </c>
       <c r="D2875">
-        <v>403.4757802756384</v>
+        <v>403.686664013659</v>
       </c>
       <c r="E2875" t="s">
         <v>2087</v>
@@ -55536,7 +55536,7 @@
         <v>1</v>
       </c>
       <c r="D2876">
-        <v>403.3111063647243</v>
+        <v>403.5218179534719</v>
       </c>
       <c r="E2876" t="s">
         <v>2087</v>
@@ -55570,7 +55570,7 @@
         <v>1</v>
       </c>
       <c r="D2878">
-        <v>438.9685277402793</v>
+        <v>439.597860486577</v>
       </c>
       <c r="E2878" t="s">
         <v>2087</v>
@@ -56777,7 +56777,7 @@
         <v>1</v>
       </c>
       <c r="D2949">
-        <v>770.9161100377796</v>
+        <v>771.2656973397266</v>
       </c>
       <c r="E2949" t="s">
         <v>2087</v>
@@ -56794,7 +56794,7 @@
         <v>1</v>
       </c>
       <c r="D2950">
-        <v>767.7432800006178</v>
+        <v>768.163155966453</v>
       </c>
       <c r="E2950" t="s">
         <v>2087</v>
@@ -60007,7 +60007,7 @@
         <v>2</v>
       </c>
       <c r="D3139">
-        <v>309.3177616417776</v>
+        <v>309.1795807723679</v>
       </c>
       <c r="E3139" t="s">
         <v>2087</v>
@@ -60024,7 +60024,7 @@
         <v>2</v>
       </c>
       <c r="D3140">
-        <v>309.3177616417776</v>
+        <v>309.1795807723679</v>
       </c>
       <c r="E3140" t="s">
         <v>2087</v>
@@ -60058,7 +60058,7 @@
         <v>2</v>
       </c>
       <c r="D3142">
-        <v>309.3177616417776</v>
+        <v>309.1795807723679</v>
       </c>
       <c r="E3142" t="s">
         <v>2087</v>
@@ -60398,7 +60398,7 @@
         <v>2</v>
       </c>
       <c r="D3162">
-        <v>1202.75</v>
+        <v>1206.75</v>
       </c>
       <c r="E3162" t="s">
         <v>2087</v>

--- a/manual/output_1156_chunk_3.xlsx
+++ b/manual/output_1156_chunk_3.xlsx
@@ -11778,7 +11778,7 @@
         <v>3</v>
       </c>
       <c r="D302">
-        <v>251.4132628319099</v>
+        <v>251.2802240687781</v>
       </c>
       <c r="E302" t="s">
         <v>2088</v>
@@ -11795,7 +11795,7 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>2011.30610265528</v>
+        <v>2010.241792550225</v>
       </c>
       <c r="E303" t="s">
         <v>2087</v>
@@ -11812,7 +11812,7 @@
         <v>3</v>
       </c>
       <c r="D304">
-        <v>251.1549118762522</v>
+        <v>251.1106481976067</v>
       </c>
       <c r="E304" t="s">
         <v>2088</v>
@@ -11829,7 +11829,7 @@
         <v>1</v>
       </c>
       <c r="D305">
-        <v>2009.239295010017</v>
+        <v>2008.885185580854</v>
       </c>
       <c r="E305" t="s">
         <v>2087</v>
@@ -11846,7 +11846,7 @@
         <v>7</v>
       </c>
       <c r="D306">
-        <v>104.936481304071</v>
+        <v>104.8024828164972</v>
       </c>
       <c r="E306" t="s">
         <v>2088</v>
@@ -11863,7 +11863,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>1259.237775648852</v>
+        <v>1257.629793797966</v>
       </c>
       <c r="E307" t="s">
         <v>2087</v>
@@ -12594,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="D350">
-        <v>54.25</v>
+        <v>54.5</v>
       </c>
       <c r="E350" t="s">
         <v>2088</v>
@@ -12611,7 +12611,7 @@
         <v>1</v>
       </c>
       <c r="D351">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E351" t="s">
         <v>2087</v>
@@ -14957,7 +14957,7 @@
         <v>3</v>
       </c>
       <c r="D489">
-        <v>48.71151293782204</v>
+        <v>48.71187339371595</v>
       </c>
       <c r="E489" t="s">
         <v>2088</v>
@@ -14974,7 +14974,7 @@
         <v>1</v>
       </c>
       <c r="D490">
-        <v>584.5381552538645</v>
+        <v>584.5424807245913</v>
       </c>
       <c r="E490" t="s">
         <v>2087</v>
@@ -17116,7 +17116,7 @@
         <v>3</v>
       </c>
       <c r="D616">
-        <v>94.30537853552443</v>
+        <v>94.30537853552445</v>
       </c>
       <c r="E616" t="s">
         <v>2088</v>
@@ -17133,7 +17133,7 @@
         <v>1</v>
       </c>
       <c r="D617">
-        <v>565.8322712131466</v>
+        <v>565.8322712131467</v>
       </c>
       <c r="E617" t="s">
         <v>2087</v>
@@ -17235,7 +17235,7 @@
         <v>3</v>
       </c>
       <c r="D623">
-        <v>23.66645867203903</v>
+        <v>23.66791534178923</v>
       </c>
       <c r="E623" t="s">
         <v>2088</v>
@@ -17252,7 +17252,7 @@
         <v>1</v>
       </c>
       <c r="D624">
-        <v>283.9975040644684</v>
+        <v>284.0149841014708</v>
       </c>
       <c r="E624" t="s">
         <v>2087</v>
@@ -17864,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="D660">
-        <v>240.3225190091377</v>
+        <v>240.3244935450991</v>
       </c>
       <c r="E660" t="s">
         <v>2087</v>
@@ -19853,7 +19853,7 @@
         <v>2</v>
       </c>
       <c r="D777">
-        <v>309.7413553526497</v>
+        <v>309.8432338830805</v>
       </c>
       <c r="E777" t="s">
         <v>2087</v>
@@ -19870,7 +19870,7 @@
         <v>2</v>
       </c>
       <c r="D778">
-        <v>308.5842444886508</v>
+        <v>309.131273372079</v>
       </c>
       <c r="E778" t="s">
         <v>2087</v>
@@ -19887,7 +19887,7 @@
         <v>2</v>
       </c>
       <c r="D779">
-        <v>309.7741750355979</v>
+        <v>309.84188988782</v>
       </c>
       <c r="E779" t="s">
         <v>2087</v>
@@ -19921,7 +19921,7 @@
         <v>332</v>
       </c>
       <c r="D781">
-        <v>70.75</v>
+        <v>70.5</v>
       </c>
       <c r="E781" t="s">
         <v>2088</v>
@@ -19938,7 +19938,7 @@
         <v>1</v>
       </c>
       <c r="D782">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="E782" t="s">
         <v>2087</v>
@@ -20703,7 +20703,7 @@
         <v>1</v>
       </c>
       <c r="D827">
-        <v>497</v>
+        <v>496.75</v>
       </c>
       <c r="E827" t="s">
         <v>2087</v>
@@ -21417,7 +21417,7 @@
         <v>2</v>
       </c>
       <c r="D869">
-        <v>101.6771728433384</v>
+        <v>101.6771664186615</v>
       </c>
       <c r="E869" t="s">
         <v>2087</v>
@@ -21485,7 +21485,7 @@
         <v>2</v>
       </c>
       <c r="D873">
-        <v>99.75889218309607</v>
+        <v>99.75849471465405</v>
       </c>
       <c r="E873" t="s">
         <v>2087</v>
@@ -21502,7 +21502,7 @@
         <v>2</v>
       </c>
       <c r="D874">
-        <v>104.6679538866024</v>
+        <v>104.6679253188135</v>
       </c>
       <c r="E874" t="s">
         <v>2087</v>
@@ -21519,7 +21519,7 @@
         <v>2</v>
       </c>
       <c r="D875">
-        <v>104.667706792341</v>
+        <v>104.6676962012927</v>
       </c>
       <c r="E875" t="s">
         <v>2087</v>
@@ -21536,7 +21536,7 @@
         <v>2</v>
       </c>
       <c r="D876">
-        <v>104.6683889462372</v>
+        <v>104.6683576481866</v>
       </c>
       <c r="E876" t="s">
         <v>2087</v>
@@ -21553,7 +21553,7 @@
         <v>2</v>
       </c>
       <c r="D877">
-        <v>104.6678675571396</v>
+        <v>104.6678327126933</v>
       </c>
       <c r="E877" t="s">
         <v>2087</v>
@@ -21570,7 +21570,7 @@
         <v>2</v>
       </c>
       <c r="D878">
-        <v>104.6695082541922</v>
+        <v>104.6693708502656</v>
       </c>
       <c r="E878" t="s">
         <v>2087</v>
@@ -21604,7 +21604,7 @@
         <v>1</v>
       </c>
       <c r="D880">
-        <v>605</v>
+        <v>605.25</v>
       </c>
       <c r="E880" t="s">
         <v>2087</v>
@@ -21740,7 +21740,7 @@
         <v>2</v>
       </c>
       <c r="D888">
-        <v>50.88665412018911</v>
+        <v>50.88664660436452</v>
       </c>
       <c r="E888" t="s">
         <v>2087</v>
@@ -21757,7 +21757,7 @@
         <v>2</v>
       </c>
       <c r="D889">
-        <v>50.88655291764792</v>
+        <v>50.886552812907</v>
       </c>
       <c r="E889" t="s">
         <v>2087</v>
@@ -21774,7 +21774,7 @@
         <v>2</v>
       </c>
       <c r="D890">
-        <v>50.88655332297138</v>
+        <v>50.88655325480647</v>
       </c>
       <c r="E890" t="s">
         <v>2087</v>
@@ -21825,7 +21825,7 @@
         <v>3</v>
       </c>
       <c r="D893">
-        <v>98.7845541029435</v>
+        <v>98.78455466245775</v>
       </c>
       <c r="E893" t="s">
         <v>2088</v>
@@ -21842,7 +21842,7 @@
         <v>1</v>
       </c>
       <c r="D894">
-        <v>1580.552865647096</v>
+        <v>1580.552874599324</v>
       </c>
       <c r="E894" t="s">
         <v>2087</v>
@@ -21859,7 +21859,7 @@
         <v>3</v>
       </c>
       <c r="D895">
-        <v>98.78456934207782</v>
+        <v>98.78456942688577</v>
       </c>
       <c r="E895" t="s">
         <v>2088</v>
@@ -21876,7 +21876,7 @@
         <v>1</v>
       </c>
       <c r="D896">
-        <v>1580.553109473245</v>
+        <v>1580.553110830172</v>
       </c>
       <c r="E896" t="s">
         <v>2087</v>
@@ -23423,7 +23423,7 @@
         <v>3</v>
       </c>
       <c r="D987">
-        <v>177.3653650587916</v>
+        <v>177.3653651567094</v>
       </c>
       <c r="E987" t="s">
         <v>2088</v>
@@ -23440,7 +23440,7 @@
         <v>1</v>
       </c>
       <c r="D988">
-        <v>709.4614602351664</v>
+        <v>709.4614606268375</v>
       </c>
       <c r="E988" t="s">
         <v>2087</v>
@@ -23457,7 +23457,7 @@
         <v>3</v>
       </c>
       <c r="D989">
-        <v>177.3652090515602</v>
+        <v>177.36521824309</v>
       </c>
       <c r="E989" t="s">
         <v>2088</v>
@@ -23474,7 +23474,7 @@
         <v>1</v>
       </c>
       <c r="D990">
-        <v>709.4608362062407</v>
+        <v>709.4608729723599</v>
       </c>
       <c r="E990" t="s">
         <v>2087</v>
@@ -27962,7 +27962,7 @@
         <v>3</v>
       </c>
       <c r="D1254">
-        <v>48.49846281428176</v>
+        <v>48.46463743628931</v>
       </c>
       <c r="E1254" t="s">
         <v>2088</v>
@@ -27979,7 +27979,7 @@
         <v>1</v>
       </c>
       <c r="D1255">
-        <v>484.9846281428176</v>
+        <v>484.6463743628931</v>
       </c>
       <c r="E1255" t="s">
         <v>2087</v>
@@ -27996,7 +27996,7 @@
         <v>3</v>
       </c>
       <c r="D1256">
-        <v>48.59570753613102</v>
+        <v>48.53053199107283</v>
       </c>
       <c r="E1256" t="s">
         <v>2088</v>
@@ -28013,7 +28013,7 @@
         <v>1</v>
       </c>
       <c r="D1257">
-        <v>485.9570753613102</v>
+        <v>485.3053199107284</v>
       </c>
       <c r="E1257" t="s">
         <v>2087</v>
@@ -29798,7 +29798,7 @@
         <v>1</v>
       </c>
       <c r="D1362">
-        <v>285.6522808398884</v>
+        <v>285.667031238072</v>
       </c>
       <c r="E1362" t="s">
         <v>2087</v>
@@ -29815,7 +29815,7 @@
         <v>1</v>
       </c>
       <c r="D1363">
-        <v>285.7539251875492</v>
+        <v>285.7661476318675</v>
       </c>
       <c r="E1363" t="s">
         <v>2087</v>
@@ -30189,7 +30189,7 @@
         <v>1</v>
       </c>
       <c r="D1385">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1385" t="s">
         <v>2087</v>
@@ -30308,7 +30308,7 @@
         <v>1</v>
       </c>
       <c r="D1392">
-        <v>344.9729438731592</v>
+        <v>345.0145246963907</v>
       </c>
       <c r="E1392" t="s">
         <v>2087</v>
@@ -30342,7 +30342,7 @@
         <v>1</v>
       </c>
       <c r="D1394">
-        <v>334.1106925700545</v>
+        <v>334.1052772691029</v>
       </c>
       <c r="E1394" t="s">
         <v>2087</v>
@@ -35034,7 +35034,7 @@
         <v>3</v>
       </c>
       <c r="D1670">
-        <v>48.19684414957693</v>
+        <v>48.19688748299689</v>
       </c>
       <c r="E1670" t="s">
         <v>2088</v>
@@ -35051,7 +35051,7 @@
         <v>1</v>
       </c>
       <c r="D1671">
-        <v>578.3621297949232</v>
+        <v>578.3626497959627</v>
       </c>
       <c r="E1671" t="s">
         <v>2087</v>
@@ -36190,7 +36190,7 @@
         <v>1</v>
       </c>
       <c r="D1738">
-        <v>771.5835074231222</v>
+        <v>771.6368455415765</v>
       </c>
       <c r="E1738" t="s">
         <v>2087</v>
@@ -36207,7 +36207,7 @@
         <v>1</v>
       </c>
       <c r="D1739">
-        <v>771.3923595340194</v>
+        <v>771.4454054454252</v>
       </c>
       <c r="E1739" t="s">
         <v>2087</v>
@@ -36224,7 +36224,7 @@
         <v>1</v>
       </c>
       <c r="D1740">
-        <v>768.2787687771263</v>
+        <v>768.3302383942208</v>
       </c>
       <c r="E1740" t="s">
         <v>2087</v>
@@ -36258,7 +36258,7 @@
         <v>1</v>
       </c>
       <c r="D1742">
-        <v>603.255403243141</v>
+        <v>603.3332843346856</v>
       </c>
       <c r="E1742" t="s">
         <v>2087</v>
@@ -37822,7 +37822,7 @@
         <v>25</v>
       </c>
       <c r="D1834">
-        <v>340.25</v>
+        <v>340.5</v>
       </c>
       <c r="E1834" t="s">
         <v>2088</v>
@@ -37839,7 +37839,7 @@
         <v>29</v>
       </c>
       <c r="D1835">
-        <v>680.5</v>
+        <v>681</v>
       </c>
       <c r="E1835" t="s">
         <v>2087</v>
@@ -38315,7 +38315,7 @@
         <v>3</v>
       </c>
       <c r="D1863">
-        <v>48.55125235220626</v>
+        <v>48.52025755041205</v>
       </c>
       <c r="E1863" t="s">
         <v>2088</v>
@@ -38332,7 +38332,7 @@
         <v>1</v>
       </c>
       <c r="D1864">
-        <v>485.5125235220626</v>
+        <v>485.2025755041205</v>
       </c>
       <c r="E1864" t="s">
         <v>2087</v>
@@ -46152,7 +46152,7 @@
         <v>25</v>
       </c>
       <c r="D2324">
-        <v>307.25</v>
+        <v>306.5</v>
       </c>
       <c r="E2324" t="s">
         <v>2088</v>
@@ -46169,7 +46169,7 @@
         <v>29</v>
       </c>
       <c r="D2325">
-        <v>921.75</v>
+        <v>919.5</v>
       </c>
       <c r="E2325" t="s">
         <v>2087</v>
@@ -47682,7 +47682,7 @@
         <v>23</v>
       </c>
       <c r="D2414">
-        <v>19.79973764062051</v>
+        <v>19.80014737507129</v>
       </c>
       <c r="E2414" t="s">
         <v>2088</v>
@@ -47699,7 +47699,7 @@
         <v>1</v>
       </c>
       <c r="D2415">
-        <v>356.3952775311691</v>
+        <v>356.4026527512833</v>
       </c>
       <c r="E2415" t="s">
         <v>2087</v>
@@ -48515,7 +48515,7 @@
         <v>3</v>
       </c>
       <c r="D2463">
-        <v>53</v>
+        <v>52.75</v>
       </c>
       <c r="E2463" t="s">
         <v>2088</v>
@@ -48532,7 +48532,7 @@
         <v>1</v>
       </c>
       <c r="D2464">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E2464" t="s">
         <v>2087</v>
@@ -48617,7 +48617,7 @@
         <v>7</v>
       </c>
       <c r="D2469">
-        <v>44.25</v>
+        <v>44.5</v>
       </c>
       <c r="E2469" t="s">
         <v>2088</v>
@@ -48634,7 +48634,7 @@
         <v>1</v>
       </c>
       <c r="D2470">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E2470" t="s">
         <v>2087</v>
@@ -48804,7 +48804,7 @@
         <v>1</v>
       </c>
       <c r="D2480">
-        <v>740.0960135646458</v>
+        <v>740.1102916473301</v>
       </c>
       <c r="E2480" t="s">
         <v>2087</v>
@@ -49756,7 +49756,7 @@
         <v>3</v>
       </c>
       <c r="D2536">
-        <v>53.11724118498214</v>
+        <v>53.11724118498213</v>
       </c>
       <c r="E2536" t="s">
         <v>2088</v>
@@ -49773,7 +49773,7 @@
         <v>1</v>
       </c>
       <c r="D2537">
-        <v>637.4068942197857</v>
+        <v>637.4068942197855</v>
       </c>
       <c r="E2537" t="s">
         <v>2087</v>
@@ -50691,7 +50691,7 @@
         <v>3</v>
       </c>
       <c r="D2591">
-        <v>23.69374403219329</v>
+        <v>23.69382696878521</v>
       </c>
       <c r="E2591" t="s">
         <v>2088</v>
@@ -50708,7 +50708,7 @@
         <v>1</v>
       </c>
       <c r="D2592">
-        <v>284.3249283863195</v>
+        <v>284.3259236254225</v>
       </c>
       <c r="E2592" t="s">
         <v>2087</v>
@@ -50725,7 +50725,7 @@
         <v>3</v>
       </c>
       <c r="D2593">
-        <v>23.69281957035333</v>
+        <v>23.69298707142065</v>
       </c>
       <c r="E2593" t="s">
         <v>2088</v>
@@ -50742,7 +50742,7 @@
         <v>1</v>
       </c>
       <c r="D2594">
-        <v>284.31383484424</v>
+        <v>284.3158448570479</v>
       </c>
       <c r="E2594" t="s">
         <v>2087</v>
@@ -51436,7 +51436,7 @@
         <v>1747</v>
       </c>
       <c r="C2635">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2635">
         <v>661.5</v>
@@ -51453,7 +51453,7 @@
         <v>1747</v>
       </c>
       <c r="C2636">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2636">
         <v>661.5</v>
@@ -51470,7 +51470,7 @@
         <v>1748</v>
       </c>
       <c r="C2637">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2637">
         <v>1228.5</v>
@@ -51487,7 +51487,7 @@
         <v>1748</v>
       </c>
       <c r="C2638">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2638">
         <v>1228.5</v>
@@ -52816,7 +52816,7 @@
         <v>1</v>
       </c>
       <c r="D2716">
-        <v>706</v>
+        <v>706.5</v>
       </c>
       <c r="E2716" t="s">
         <v>2087</v>
@@ -53292,7 +53292,7 @@
         <v>1</v>
       </c>
       <c r="D2744">
-        <v>684</v>
+        <v>683.75</v>
       </c>
       <c r="E2744" t="s">
         <v>2087</v>
@@ -56777,7 +56777,7 @@
         <v>1</v>
       </c>
       <c r="D2949">
-        <v>771.2656973397266</v>
+        <v>771.3419136649186</v>
       </c>
       <c r="E2949" t="s">
         <v>2087</v>
@@ -56794,7 +56794,7 @@
         <v>1</v>
       </c>
       <c r="D2950">
-        <v>768.163155966453</v>
+        <v>768.2366974776847</v>
       </c>
       <c r="E2950" t="s">
         <v>2087</v>
@@ -56811,7 +56811,7 @@
         <v>1</v>
       </c>
       <c r="D2951">
-        <v>596.5</v>
+        <v>596.75</v>
       </c>
       <c r="E2951" t="s">
         <v>2087</v>
@@ -57202,7 +57202,7 @@
         <v>2</v>
       </c>
       <c r="D2974">
-        <v>89.5</v>
+        <v>90</v>
       </c>
       <c r="E2974" t="s">
         <v>2088</v>
@@ -57219,7 +57219,7 @@
         <v>1</v>
       </c>
       <c r="D2975">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E2975" t="s">
         <v>2087</v>
@@ -57678,7 +57678,7 @@
         <v>3</v>
       </c>
       <c r="D3002">
-        <v>136.1977421192229</v>
+        <v>136.2015968659649</v>
       </c>
       <c r="E3002" t="s">
         <v>2088</v>
@@ -57695,7 +57695,7 @@
         <v>1</v>
       </c>
       <c r="D3003">
-        <v>3268.74581086135</v>
+        <v>3268.838324783158</v>
       </c>
       <c r="E3003" t="s">
         <v>2087</v>
